--- a/python/result_data/all_index/__REPORT__2012-01-01_2019-12-31.xlsx
+++ b/python/result_data/all_index/__REPORT__2012-01-01_2019-12-31.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\GIT_REPO\uc3m\my\uc3m-stockVolatilityPredictionGtrends\python\result_data\all_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC710F7-EBB6-4495-A89F-FD95D4BCE2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D7B50A-1075-40D4-B01B-7DCA221E7638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="2235" windowWidth="20115" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__REPORT__" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>stock</t>
   </si>
@@ -104,13 +105,19 @@
   </si>
   <si>
     <t>less_balanced_binary_finance</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>*2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +131,44 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -160,11 +198,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -486,13 +532,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>4062</v>
       </c>
     </row>
@@ -508,13 +554,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.61540485948719204</v>
       </c>
     </row>
@@ -538,35 +584,35 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.55976095617529875</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -633,10 +679,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
         <v>0.61113854640784293</v>
       </c>
     </row>
@@ -649,10 +696,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
         <v>0.61113854640784293</v>
       </c>
     </row>
@@ -675,4 +723,105 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8DE4A2-9165-427A-AFA1-DF7D3989A1D9}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.61540485948719204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.55976095617529875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>0.61113854640784293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>0.61113854640784293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>